--- a/BuildTool/Config/Test/Vector2Test.xlsx
+++ b/BuildTool/Config/Test/Vector2Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default=0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default=0,0|1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0|1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +168,22 @@
   </si>
   <si>
     <t>arraysep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=0,0&amp;r2ef=Item.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,16 +586,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="5" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="4" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="7" max="7" width="28.625" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
@@ -611,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -637,10 +647,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -698,22 +708,22 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -729,22 +739,22 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -754,15 +764,20 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/Test/Vector2Test.xlsx
+++ b/BuildTool/Config/Test/Vector2Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,7 +183,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default=0,0&amp;r2ef=Item.size</t>
+    <t>default=0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=Item.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +593,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,6 +733,9 @@
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
